--- a/data/trans_orig/Q64C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas que trabajan a la semana</t>
+          <t>Número medio de horas que trabaja a la semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,57</t>
+          <t>42,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,99</t>
+          <t>43,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,98</t>
+          <t>41,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,74</t>
+          <t>41,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,71</t>
+          <t>39,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,56</t>
+          <t>35,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,98</t>
+          <t>35,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,14</t>
+          <t>36,04</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>42,41</t>
+          <t>41,85</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,99</t>
+          <t>40,39</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>38,93</t>
+          <t>38,67</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,73</t>
+          <t>39,0</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,83; 45,4</t>
+          <t>41,98; 43,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 47,56</t>
+          <t>42,07; 44,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,44; 46,24</t>
+          <t>40,05; 42,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,84; 42,19</t>
+          <t>40,33; 42,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,44; 43,69</t>
+          <t>37,35; 41,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,45; 38,61</t>
+          <t>33,55; 37,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 41,52</t>
+          <t>33,01; 36,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,09; 38,01</t>
+          <t>35,15; 36,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,31; 44,15</t>
+          <t>40,98; 42,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,59; 43,86</t>
+          <t>39,36; 41,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,26; 42,0</t>
+          <t>37,55; 39,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,51; 40,04</t>
+          <t>38,31; 39,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,7</t>
+          <t>41,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,08</t>
+          <t>40,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,2</t>
+          <t>38,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,43</t>
+          <t>30,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,44</t>
+          <t>36,5</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,76</t>
+          <t>34,78</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,83</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,07</t>
+          <t>36,25</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,75</t>
+          <t>39,98</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40,26</t>
+          <t>38,41</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38,62</t>
+          <t>37,34</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,06</t>
+          <t>32,14</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,72; 43,7</t>
+          <t>40,8; 42,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,8; 44,49</t>
+          <t>39,9; 41,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,87; 42,74</t>
+          <t>37,93; 39,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 42,58</t>
+          <t>17,73; 40,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,27; 42,22</t>
+          <t>35,11; 37,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,7; 37,76</t>
+          <t>33,3; 36,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,58; 36,7</t>
+          <t>33,56; 36,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,05; 37,01</t>
+          <t>35,5; 37,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,85; 42,87</t>
+          <t>39,22; 40,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,07; 41,44</t>
+          <t>37,51; 39,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,43; 39,96</t>
+          <t>36,47; 38,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,35; 39,92</t>
+          <t>21,73; 38,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,67</t>
+          <t>40,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,82</t>
+          <t>41,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,93</t>
+          <t>39,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,21</t>
+          <t>39,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,5</t>
+          <t>37,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,78</t>
+          <t>37,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,98</t>
+          <t>34,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,23</t>
+          <t>36,39</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,98</t>
+          <t>39,41</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>38,41</t>
+          <t>39,95</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37,34</t>
+          <t>37,23</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,81</t>
+          <t>38,08</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,8; 42,52</t>
+          <t>39,43; 41,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,9; 41,78</t>
+          <t>40,14; 42,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,93; 39,84</t>
+          <t>37,53; 40,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,8; 40,1</t>
+          <t>38,79; 40,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,11; 37,97</t>
+          <t>35,49; 38,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,3; 36,31</t>
+          <t>36,14; 39,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,56; 36,48</t>
+          <t>33,07; 36,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,43; 37,03</t>
+          <t>35,16; 37,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 40,7</t>
+          <t>38,41; 40,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,51; 39,24</t>
+          <t>38,97; 40,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,47; 38,13</t>
+          <t>36,18; 38,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,4; 38,53</t>
+          <t>37,36; 38,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,66</t>
+          <t>39,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,41</t>
+          <t>40,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,11</t>
+          <t>39,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,64</t>
+          <t>38,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,07</t>
+          <t>36,65</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,78</t>
+          <t>35,56</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,74</t>
+          <t>34,96</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,13</t>
+          <t>32,14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,41</t>
+          <t>38,54</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,95</t>
+          <t>38,27</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,23</t>
+          <t>37,3</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,98</t>
+          <t>35,34</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,43; 41,84</t>
+          <t>38,92; 40,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 42,61</t>
+          <t>39,43; 41,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,53; 40,4</t>
+          <t>38,27; 40,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,82; 40,35</t>
+          <t>37,58; 39,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,49; 38,62</t>
+          <t>35,38; 37,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,14; 39,41</t>
+          <t>34,37; 36,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,3</t>
+          <t>33,79; 36,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,98; 37,19</t>
+          <t>27,08; 34,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,41; 40,27</t>
+          <t>37,86; 39,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,97; 40,94</t>
+          <t>37,55; 39,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,18; 38,39</t>
+          <t>36,52; 38,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,24; 38,68</t>
+          <t>31,47; 36,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,85</t>
+          <t>41,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>40,24</t>
+          <t>41,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,2</t>
+          <t>39,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,71</t>
+          <t>35,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,65</t>
+          <t>37,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,56</t>
+          <t>35,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,96</t>
+          <t>34,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,57</t>
+          <t>34,87</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,54</t>
+          <t>39,74</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38,27</t>
+          <t>39,08</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37,3</t>
+          <t>37,52</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>36,22</t>
+          <t>35,35</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,92; 40,66</t>
+          <t>40,67; 41,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,43; 41,17</t>
+          <t>40,77; 41,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,27; 40,22</t>
+          <t>38,87; 40,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,69; 39,52</t>
+          <t>25,15; 39,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,38; 37,8</t>
+          <t>36,34; 37,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,37; 36,7</t>
+          <t>35,09; 36,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,79; 36,12</t>
+          <t>34,11; 35,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,7; 34,7</t>
+          <t>32,48; 35,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,86; 39,25</t>
+          <t>39,34; 40,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,55; 39,04</t>
+          <t>38,6; 39,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,52; 38,08</t>
+          <t>37,05; 38,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,05; 36,93</t>
+          <t>29,1; 37,82</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>41,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>41,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>39,44</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>38,84</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>37,13</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>35,84</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,92</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>35,35</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>39,74</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>39,08</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>37,52</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>37,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>40,67; 41,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>40,77; 41,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38,87; 40,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>35,21; 39,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>36,34; 37,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>35,09; 36,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>34,11; 35,66</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>34,59; 35,87</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>39,34; 40,18</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>38,6; 39,51</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>37,05; 38,01</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>35,46; 37,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q64C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,98; 43,78</t>
+          <t>41,93; 43,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,07; 44,63</t>
+          <t>42,15; 44,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,05; 42,73</t>
+          <t>40,01; 42,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,33; 42,22</t>
+          <t>40,33; 42,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,35; 41,91</t>
+          <t>37,59; 42,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,55; 37,48</t>
+          <t>33,88; 37,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,01; 36,87</t>
+          <t>33,09; 36,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,15; 36,92</t>
+          <t>35,01; 36,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,98; 42,79</t>
+          <t>40,97; 42,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,36; 41,58</t>
+          <t>39,21; 41,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,55; 39,85</t>
+          <t>37,57; 39,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,31; 39,68</t>
+          <t>38,31; 39,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,8; 42,52</t>
+          <t>40,82; 42,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,9; 41,78</t>
+          <t>39,86; 41,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,93; 39,84</t>
+          <t>37,96; 39,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 40,13</t>
+          <t>17,85; 40,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,11; 37,97</t>
+          <t>35,04; 38,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,3; 36,31</t>
+          <t>33,33; 36,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,56; 36,48</t>
+          <t>33,59; 36,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,5; 37,09</t>
+          <t>35,45; 36,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,22; 40,7</t>
+          <t>39,23; 40,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,51; 39,24</t>
+          <t>37,49; 39,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,47; 38,13</t>
+          <t>36,49; 38,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 38,62</t>
+          <t>21,03; 38,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,43; 41,84</t>
+          <t>39,4; 41,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,14; 42,61</t>
+          <t>40,1; 42,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,53; 40,4</t>
+          <t>37,75; 40,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,79; 40,3</t>
+          <t>38,82; 40,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,49; 38,62</t>
+          <t>35,58; 38,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,14; 39,41</t>
+          <t>35,94; 39,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,3</t>
+          <t>33,07; 36,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,16; 37,54</t>
+          <t>35,17; 37,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,41; 40,27</t>
+          <t>38,5; 40,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,97; 40,94</t>
+          <t>38,94; 41,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,18; 38,39</t>
+          <t>36,1; 38,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,36; 38,76</t>
+          <t>37,35; 38,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,92; 40,66</t>
+          <t>38,99; 40,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,43; 41,17</t>
+          <t>39,44; 41,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 40,22</t>
+          <t>38,26; 40,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,58; 39,45</t>
+          <t>37,61; 39,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,38; 37,8</t>
+          <t>35,53; 37,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,37; 36,7</t>
+          <t>34,44; 36,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 36,12</t>
+          <t>33,71; 36,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,08; 34,56</t>
+          <t>27,36; 34,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,86; 39,25</t>
+          <t>37,84; 39,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,55; 39,04</t>
+          <t>37,6; 38,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,52; 38,08</t>
+          <t>36,6; 38,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,47; 36,77</t>
+          <t>31,87; 36,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,67; 41,6</t>
+          <t>40,69; 41,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,77; 41,83</t>
+          <t>40,71; 41,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,87; 40,08</t>
+          <t>38,84; 40,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,15; 39,84</t>
+          <t>25,93; 39,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,34; 37,94</t>
+          <t>36,34; 37,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,09; 36,67</t>
+          <t>35,07; 36,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,11; 35,66</t>
+          <t>34,16; 35,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,48; 35,82</t>
+          <t>32,49; 35,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,34; 40,18</t>
+          <t>39,36; 40,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>38,6; 39,51</t>
+          <t>38,67; 39,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,05; 38,01</t>
+          <t>36,99; 37,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,1; 37,82</t>
+          <t>28,16; 37,84</t>
         </is>
       </c>
     </row>
